--- a/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859C6066-3910-48A2-A1BA-194E336CB401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99836F35-3795-4609-800F-DC510A47B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06E26452-B691-4B3F-8B86-C914FDA0A72E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23818957-EA2B-4036-9EC9-26A4E749E093}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="189">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -283,7 +283,7 @@
     <t>98,5%</t>
   </si>
   <si>
-    <t>91,97%</t>
+    <t>92,37%</t>
   </si>
   <si>
     <t>98,19%</t>
@@ -292,13 +292,13 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>97,16%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>8,03%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -307,109 +307,112 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>87,83%</t>
+    <t>88,75%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>12,17%</t>
+    <t>11,25%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>53,01%</t>
+    <t>51,95%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>80,08%</t>
+    <t>81,26%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>46,99%</t>
+    <t>48,05%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>19,92%</t>
+    <t>18,74%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,8%</t>
+    <t>95,75%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -418,16 +421,19 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>14,85%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -436,16 +442,16 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
@@ -454,163 +460,151 @@
     <t>97,24%</t>
   </si>
   <si>
-    <t>87,89%</t>
+    <t>86,01%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>90,73%</t>
+    <t>90,03%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>92,57%</t>
+    <t>91,41%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>12,11%</t>
+    <t>13,99%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>9,27%</t>
+    <t>9,97%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,43%</t>
+    <t>8,59%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>78,63%</t>
+    <t>79,23%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>88,56%</t>
+    <t>86,97%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>87,52%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>21,37%</t>
+    <t>20,77%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>13,03%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>78,51%</t>
+    <t>77,48%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>21,49%</t>
+    <t>22,52%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>20,81%</t>
+    <t>20,85%</t>
   </si>
   <si>
     <t>94,2%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>98,12%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>1,88%</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7B4935-2EBC-433A-84BD-A3E79C8F02E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11F97BB-B630-412C-982D-91DAF054727F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1773,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950B08DB-1EBE-4A3D-82B2-6F9E2A3CBC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE799822-473A-4A26-AB4B-2E049327A68E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,7 +2362,7 @@
         <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -2377,13 +2371,13 @@
         <v>187136</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>284</v>
@@ -2392,13 +2386,13 @@
         <v>316174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2407,13 @@
         <v>11226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2428,13 +2422,13 @@
         <v>2959</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2443,13 +2437,13 @@
         <v>14185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,7 +2518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABAF027-974A-4D72-9305-C736F7EB4F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFA8E58-994D-4F77-B4DF-CAE9D874273C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2541,7 +2535,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2648,10 +2642,10 @@
         <v>33295</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2663,10 +2657,10 @@
         <v>68157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2678,10 +2672,10 @@
         <v>101453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2699,13 +2693,13 @@
         <v>947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2714,13 +2708,13 @@
         <v>1194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2729,13 +2723,13 @@
         <v>2140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,10 +2797,10 @@
         <v>45328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2818,10 +2812,10 @@
         <v>49996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2833,13 +2827,13 @@
         <v>95324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2848,13 @@
         <v>3505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2869,13 +2863,13 @@
         <v>1898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2884,10 +2878,10 @@
         <v>5403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>162</v>
@@ -3146,10 +3140,10 @@
         <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3158,13 @@
         <v>5617</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3179,13 +3173,13 @@
         <v>3976</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3194,13 +3188,13 @@
         <v>9594</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99836F35-3795-4609-800F-DC510A47B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FD43B9-4C30-447C-810F-F74744F0D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23818957-EA2B-4036-9EC9-26A4E749E093}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B110B387-15BE-4FEE-923F-19FB88B7F303}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="187">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>88,15%</t>
+    <t>87,93%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,7 +85,7 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>88,76%</t>
+    <t>89,47%</t>
   </si>
   <si>
     <t>98,77%</t>
@@ -94,10 +94,10 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,85%</t>
+    <t>12,07%</t>
   </si>
   <si>
     <t>3,94%</t>
@@ -118,16 +118,16 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>11,24%</t>
+    <t>10,53%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,13 +139,13 @@
     <t>95,31%</t>
   </si>
   <si>
-    <t>76,91%</t>
+    <t>76,41%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>80,7%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>97,83%</t>
@@ -154,16 +154,16 @@
     <t>93,85%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>23,09%</t>
+    <t>23,59%</t>
   </si>
   <si>
     <t>7,02%</t>
@@ -172,16 +172,16 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>19,3%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -190,7 +190,7 @@
     <t>90,32%</t>
   </si>
   <si>
-    <t>52,49%</t>
+    <t>56,78%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -199,13 +199,13 @@
     <t>93,25%</t>
   </si>
   <si>
-    <t>68,11%</t>
+    <t>68,78%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>47,51%</t>
+    <t>43,22%</t>
   </si>
   <si>
     <t>0%</t>
@@ -217,61 +217,61 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>31,89%</t>
+    <t>31,22%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -283,7 +283,7 @@
     <t>98,5%</t>
   </si>
   <si>
-    <t>92,37%</t>
+    <t>91,73%</t>
   </si>
   <si>
     <t>98,19%</t>
@@ -292,13 +292,13 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>97,57%</t>
+    <t>96,97%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>8,27%</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -307,112 +307,112 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>88,75%</t>
+    <t>87,2%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>11,25%</t>
+    <t>12,8%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>51,95%</t>
+    <t>48,15%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>81,26%</t>
+    <t>78,82%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>48,05%</t>
+    <t>51,85%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>18,74%</t>
+    <t>21,18%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,75%</t>
+    <t>95,81%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -421,19 +421,19 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -442,169 +442,163 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>86,01%</t>
+    <t>85,02%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>13,99%</t>
+    <t>14,98%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>79,23%</t>
+    <t>79,2%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>86,97%</t>
+    <t>87,45%</t>
   </si>
   <si>
     <t>94,64%</t>
   </si>
   <si>
-    <t>87,52%</t>
+    <t>86,37%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>20,77%</t>
+    <t>20,8%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>13,03%</t>
+    <t>12,55%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>77,48%</t>
+    <t>74,17%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>22,52%</t>
+    <t>25,83%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>20,85%</t>
+    <t>21,62%</t>
   </si>
   <si>
     <t>94,2%</t>
   </si>
   <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11F97BB-B630-412C-982D-91DAF054727F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBF6115-B428-447A-ABB8-3762C6E25464}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1767,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE799822-473A-4A26-AB4B-2E049327A68E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8685A3-262D-4BD0-88F4-9AFE5093361C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2518,7 +2512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFA8E58-994D-4F77-B4DF-CAE9D874273C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3956BCBF-A3C4-488F-AC5F-FA8F0E9FB088}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2672,10 +2666,10 @@
         <v>101453</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2693,13 +2687,13 @@
         <v>947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2708,13 +2702,13 @@
         <v>1194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2723,13 +2717,13 @@
         <v>2140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,10 +2791,10 @@
         <v>45328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2812,10 +2806,10 @@
         <v>49996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2827,10 +2821,10 @@
         <v>95324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>82</v>
@@ -2848,13 +2842,13 @@
         <v>3505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2863,13 +2857,13 @@
         <v>1898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2878,13 +2872,13 @@
         <v>5403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,7 +2949,7 @@
         <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2967,10 +2961,10 @@
         <v>16828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2982,10 +2976,10 @@
         <v>29441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3009,7 +3003,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3018,13 +3012,13 @@
         <v>885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3033,13 +3027,13 @@
         <v>2051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3101,13 @@
         <v>91237</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -3122,28 +3116,28 @@
         <v>134981</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>203</v>
       </c>
       <c r="N13" s="7">
-        <v>226218</v>
+        <v>226217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3152,13 @@
         <v>5617</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3173,13 +3167,13 @@
         <v>3976</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3188,13 +3182,13 @@
         <v>9594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,7 +3230,7 @@
         <v>211</v>
       </c>
       <c r="N15" s="7">
-        <v>235812</v>
+        <v>235811</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FD43B9-4C30-447C-810F-F74744F0D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB54BDE-31B6-4824-A303-C016ED34E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B110B387-15BE-4FEE-923F-19FB88B7F303}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F24D2450-EB40-44BD-98D4-925E0D1324E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="191">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>87,93%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,7 +85,7 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>89,47%</t>
+    <t>88,76%</t>
   </si>
   <si>
     <t>98,77%</t>
@@ -94,10 +94,10 @@
     <t>96,83%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,07%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>3,94%</t>
@@ -118,16 +118,16 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>10,53%</t>
+    <t>11,24%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,13 +139,13 @@
     <t>95,31%</t>
   </si>
   <si>
-    <t>76,41%</t>
+    <t>76,91%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>81,63%</t>
+    <t>80,7%</t>
   </si>
   <si>
     <t>97,83%</t>
@@ -154,16 +154,16 @@
     <t>93,85%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>23,09%</t>
   </si>
   <si>
     <t>7,02%</t>
@@ -172,16 +172,16 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>18,37%</t>
+    <t>19,3%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -190,7 +190,7 @@
     <t>90,32%</t>
   </si>
   <si>
-    <t>56,78%</t>
+    <t>52,49%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -199,13 +199,13 @@
     <t>93,25%</t>
   </si>
   <si>
-    <t>68,78%</t>
+    <t>68,11%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>43,22%</t>
+    <t>47,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -217,388 +217,400 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>31,22%</t>
+    <t>31,89%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,5%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBF6115-B428-447A-ABB8-3762C6E25464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B106827-36C9-4BA7-ACB1-99E3F9FE5587}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1761,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8685A3-262D-4BD0-88F4-9AFE5093361C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90906EC-FA3A-44C8-BA56-90222AB17600}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2356,7 +2368,7 @@
         <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -2365,13 +2377,13 @@
         <v>187136</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>284</v>
@@ -2380,13 +2392,13 @@
         <v>316174</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2413,13 @@
         <v>11226</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2416,13 +2428,13 @@
         <v>2959</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2431,13 +2443,13 @@
         <v>14185</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,7 +2524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3956BCBF-A3C4-488F-AC5F-FA8F0E9FB088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E434353-2D0F-4B9A-A1EB-281FD69A6393}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2529,7 +2541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2636,10 +2648,10 @@
         <v>33295</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2651,10 +2663,10 @@
         <v>68157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2666,10 +2678,10 @@
         <v>101453</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2687,13 +2699,13 @@
         <v>947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2702,13 +2714,13 @@
         <v>1194</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2717,7 +2729,7 @@
         <v>2140</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
@@ -2827,7 +2839,7 @@
         <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2854,13 @@
         <v>3505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2857,13 +2869,13 @@
         <v>1898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2872,13 +2884,13 @@
         <v>5403</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,7 +2961,7 @@
         <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2961,10 +2973,10 @@
         <v>16828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2976,10 +2988,10 @@
         <v>29441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3003,7 +3015,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3012,13 +3024,13 @@
         <v>885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3027,13 +3039,13 @@
         <v>2051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3113,13 @@
         <v>91237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -3116,28 +3128,28 @@
         <v>134981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>203</v>
       </c>
       <c r="N13" s="7">
-        <v>226217</v>
+        <v>226218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3164,13 @@
         <v>5617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3167,13 +3179,13 @@
         <v>3976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3182,13 +3194,13 @@
         <v>9594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3242,7 @@
         <v>211</v>
       </c>
       <c r="N15" s="7">
-        <v>235811</v>
+        <v>235812</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB54BDE-31B6-4824-A303-C016ED34E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FFF7F38-8B3C-49CC-93B3-9F20659B1F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F24D2450-EB40-44BD-98D4-925E0D1324E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F1761F2-18EF-4537-BCC3-81E5D019CC62}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B106827-36C9-4BA7-ACB1-99E3F9FE5587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF5BE18-93EA-4528-98F3-E6AA69ADB865}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1773,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90906EC-FA3A-44C8-BA56-90222AB17600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976277D5-3E2E-43F6-8604-65528461D2F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2524,7 +2524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E434353-2D0F-4B9A-A1EB-281FD69A6393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B989B1-D589-4DEA-99E1-67E82F0AA154}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3140,7 +3140,7 @@
         <v>203</v>
       </c>
       <c r="N13" s="7">
-        <v>226218</v>
+        <v>226217</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>179</v>
@@ -3242,7 +3242,7 @@
         <v>211</v>
       </c>
       <c r="N15" s="7">
-        <v>235812</v>
+        <v>235811</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
